--- a/doc/Sua_BVN.xlsx
+++ b/doc/Sua_BVN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\files\UIT\HKV\CS523\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABD29171-ACB4-4F30-BF3D-EBC9F5421A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E6832C-609B-4548-A74F-293B3BACBB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{59703DA5-1864-444E-830A-F59F2C2E7EA1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
   <si>
     <t>BÀI</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>Chưa cụ thể lợi ích của Btree trong DB</t>
-  </si>
-  <si>
-    <t>Chưa cụ thể lợi ích của Btree trong</t>
   </si>
   <si>
     <t>/7</t>
@@ -283,12 +280,75 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -300,70 +360,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -681,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC0F118-6304-4CAD-BFE1-77026A1F2585}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,36 +691,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="25"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="6"/>
-      <c r="B2" s="13">
+      <c r="A2" s="27"/>
+      <c r="B2" s="9">
         <v>2</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="9">
         <v>6</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="9">
         <v>14</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="9">
         <v>12</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="10">
         <v>8</v>
       </c>
       <c r="H2" s="2"/>
@@ -733,173 +729,173 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="82.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="77.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="72.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="22">
+        <v>6.25</v>
+      </c>
+      <c r="C10" s="22">
+        <v>6</v>
+      </c>
+      <c r="D10" s="22">
+        <v>5.5</v>
+      </c>
+      <c r="E10" s="22">
+        <v>6.5</v>
+      </c>
+      <c r="F10" s="22">
+        <v>4.75</v>
+      </c>
+      <c r="G10" s="23" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12">
-        <v>2</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" ht="82.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12">
-        <v>3</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" ht="77.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12">
-        <v>4</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" ht="72.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="12">
-        <v>5</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12">
-        <v>6</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="12">
-        <v>7</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="27">
-        <v>6.25</v>
-      </c>
-      <c r="C10" s="27">
-        <v>6</v>
-      </c>
-      <c r="D10" s="27">
-        <v>5.5</v>
-      </c>
-      <c r="E10" s="27">
-        <v>6.5</v>
-      </c>
-      <c r="F10" s="27">
-        <v>4.75</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="21" x14ac:dyDescent="0.35">
